--- a/300693/300693_2019-01_level3.xlsx
+++ b/300693/300693_2019-01_level3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -104,11 +104,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,8 +116,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -156,14 +170,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,9 +472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="7" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -541,10 +561,10 @@
         <v>0.49</v>
       </c>
       <c r="D4">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E4">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F4">
         <v>1.07</v>
@@ -564,10 +584,10 @@
         <v>0.25</v>
       </c>
       <c r="D5">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E5">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F5">
         <v>1.54</v>
@@ -590,10 +610,10 @@
         <v>1.03</v>
       </c>
       <c r="E6">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F6">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G6">
         <v>1.03</v>
@@ -685,7 +705,7 @@
         <v>0.89</v>
       </c>
       <c r="F10">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G10">
         <v>1.08</v>
@@ -711,7 +731,7 @@
         <v>0.36</v>
       </c>
       <c r="G11">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -725,7 +745,7 @@
         <v>1.81</v>
       </c>
       <c r="D12">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E12">
         <v>1.42</v>
@@ -734,29 +754,29 @@
         <v>0.32</v>
       </c>
       <c r="G12">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>0.55</v>
-      </c>
-      <c r="C13">
-        <v>0.28</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="2">
         <v>2.13</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>1.57</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>3.98</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>4</v>
       </c>
     </row>
@@ -823,10 +843,10 @@
         <v>0.99</v>
       </c>
       <c r="F16">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G16">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -840,7 +860,7 @@
         <v>1.58</v>
       </c>
       <c r="D17">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="E17">
         <v>1.01</v>
@@ -866,10 +886,10 @@
         <v>1.01</v>
       </c>
       <c r="E18">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F18">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="G18">
         <v>0.66</v>
@@ -895,7 +915,7 @@
         <v>1.02</v>
       </c>
       <c r="G19">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -932,7 +952,7 @@
         <v>0.62</v>
       </c>
       <c r="D21">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E21">
         <v>1.25</v>
@@ -949,16 +969,16 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C22">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D22">
         <v>1.08</v>
       </c>
       <c r="E22">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F22">
         <v>0.73</v>
@@ -968,6 +988,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>